--- a/test_pcos.xlsx
+++ b/test_pcos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,203 +436,810 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>System Descr.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>SubSystem</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SubSystem Descr.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ITR</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>End Cert.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Form</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>7-1100-P-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pump System 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>7-1100-P-01-05</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Primary Pump</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>ITR-A</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>T001</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>F001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>7-1100-P-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pump System 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>7-1100-P-01-05</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Primary Pump</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>ITR-B</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>T002</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>F002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>7-1100-P-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pump System 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>7-1100-P-01-05</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Primary Pump</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>ITR-C</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>P003</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>R003</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>T003</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>F003</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>7-1200-P-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pump System 2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>7-1200-P-02-01</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Secondary Pump</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>ITR-A</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>P004</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R004</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>T004</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>F004</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>7-1200-P-02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pump System 2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>7-1200-P-02-01</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Secondary Pump</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>ITR-B</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>P005</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>R005</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>T005</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>F005</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>7-1300-P-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Valve Control System</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>7-1300-P-03-02</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Control Valve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>ITR-A</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>P006</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>R006</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>T006</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>F006</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>7-1300-P-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valve Control System</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>7-1300-P-03-02</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Control Valve</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>ITR-B</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>P007</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>R007</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>T007</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>F007</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>7-1300-P-03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Valve Control System</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>7-1300-P-03-02</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Control Valve</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>ITR-C</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P008</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>R008</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>T008</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>F008</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>7-1400-P-04</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nitrogen System</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>7-1400-P-04-03</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nitrogen Tank</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>ITR-A</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>P009</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>R009</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>T009</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>F009</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>7-1500-P-05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cooling System</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>7-1500-P-05-04</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cooling Unit</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>ITR-A</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P010</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>R010</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>T010</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>F010</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>7-1500-P-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cooling System</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>7-1500-P-05-04</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cooling Unit</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>ITR-B</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>P011</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>R011</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>T011</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>F011</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>7-1500-P-05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cooling System</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>7-1500-P-05-04</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cooling Unit</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>ITR-C</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>P012</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>R012</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>T012</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>F012</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7-1100-P-01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pump System 1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7-1100-P-01-05</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Primary Pump</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ITR-D</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>T001</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7-1200-P-02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pump System 2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7-1200-P-02-01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Secondary Pump</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ITR-C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P004</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>R004</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>T004</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>F004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7-1300-P-03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Valve Control System</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7-1300-P-03-02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Control Valve</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ITR-D</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P006</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>R006</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>T006</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>F006</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
